--- a/frecuencias_binarias.xlsx
+++ b/frecuencias_binarias.xlsx
@@ -490,7 +490,7 @@
         <v>4340</v>
       </c>
       <c r="G2" t="n">
-        <v>3728</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="3">
@@ -513,7 +513,7 @@
         <v>4415</v>
       </c>
       <c r="G3" t="n">
-        <v>5027</v>
+        <v>3566</v>
       </c>
     </row>
   </sheetData>
